--- a/cocuga_bagli_istihdam_orani.xlsx
+++ b/cocuga_bagli_istihdam_orani.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamze.kazel\Documents\GitHub\emu660-spring2025-gkazel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinar\Masaüstü\emu660-spring2025-pinarmurtezaoglu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A591CA47-2FEA-47A7-A2FB-91024149237D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12048" windowHeight="5100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6940"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="6">
   <si>
     <t>yil</t>
   </si>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -374,20 +373,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,289 +400,261 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>24.265547500953836</v>
+        <v>24.251610458506999</v>
       </c>
       <c r="D2" s="1">
-        <v>48.733988680369379</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>50.088183421516753</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
+        <v>2016</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>25.403983464862833</v>
+      </c>
+      <c r="D3" s="1">
+        <v>51.278283867176022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2017</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>27.38944365192582</v>
+      </c>
+      <c r="D4" s="1">
+        <v>53.004667444574096</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2018</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>26.508620689655171</v>
+      </c>
+      <c r="D5" s="1">
+        <v>53.395851094060809</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2019</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>26.695065672701457</v>
+      </c>
+      <c r="D6" s="1">
+        <v>52.8059129482617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2020</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>25.207656193571687</v>
+      </c>
+      <c r="D7" s="1">
+        <v>50.721088435374149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2021</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>26.113207547169807</v>
+      </c>
+      <c r="D8" s="1">
+        <v>52.294997421351205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2022</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>28.032786885245901</v>
+      </c>
+      <c r="D9" s="1">
+        <v>56.182212581344906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2023</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>27.129859387923904</v>
+      </c>
+      <c r="D10" s="1">
+        <v>58.00885987409653</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>2015</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>24.251610458506999</v>
-      </c>
-      <c r="D3" s="1">
-        <v>50.088183421516753</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>90.410509031198686</v>
+      </c>
+      <c r="D11" s="1">
+        <v>78.089772494363601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>2016</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>25.403983464862833</v>
-      </c>
-      <c r="D4" s="1">
-        <v>51.278283867176022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>89.243421052631575</v>
+      </c>
+      <c r="D12" s="1">
+        <v>78.125627132249647</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>2017</v>
       </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>27.38944365192582</v>
-      </c>
-      <c r="D5" s="1">
-        <v>53.004667444574096</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>90.345686701962009</v>
+      </c>
+      <c r="D13" s="1">
+        <v>78.445864962045547</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>2018</v>
       </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>26.508620689655171</v>
-      </c>
-      <c r="D6" s="1">
-        <v>53.395851094060809</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>90.387645761109354</v>
+      </c>
+      <c r="D14" s="1">
+        <v>78.064012490241993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>2019</v>
       </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>26.695065672701457</v>
-      </c>
-      <c r="D7" s="1">
-        <v>52.8059129482617</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>87.321258341277414</v>
+      </c>
+      <c r="D15" s="1">
+        <v>75.070875070875076</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>2020</v>
       </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>25.207656193571687</v>
-      </c>
-      <c r="D8" s="1">
-        <v>50.721088435374149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>85.535831689677849</v>
+      </c>
+      <c r="D16" s="1">
+        <v>71.472896513962397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
         <v>2021</v>
       </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>26.113207547169807</v>
-      </c>
-      <c r="D9" s="1">
-        <v>52.294997421351205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>89.093435220562696</v>
+      </c>
+      <c r="D17" s="1">
+        <v>74.905465795806109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
         <v>2022</v>
       </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>28.032786885245901</v>
-      </c>
-      <c r="D10" s="1">
-        <v>56.182212581344906</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>90.523123578468528</v>
+      </c>
+      <c r="D18" s="1">
+        <v>77.795707600451834</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
         <v>2023</v>
       </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>27.129859387923904</v>
-      </c>
-      <c r="D11" s="1">
-        <v>58.00885987409653</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2014</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1">
-        <v>90.239109073042911</v>
-      </c>
-      <c r="D12" s="1">
-        <v>77.322868052609252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2015</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1">
-        <v>90.410509031198686</v>
-      </c>
-      <c r="D13" s="1">
-        <v>78.089772494363601</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2016</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1">
-        <v>89.243421052631575</v>
-      </c>
-      <c r="D14" s="1">
-        <v>78.125627132249647</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>2017</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1">
-        <v>90.345686701962009</v>
-      </c>
-      <c r="D15" s="1">
-        <v>78.445864962045547</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>2018</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1">
-        <v>90.387645761109354</v>
-      </c>
-      <c r="D16" s="1">
-        <v>78.064012490241993</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>2019</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1">
-        <v>87.321258341277414</v>
-      </c>
-      <c r="D17" s="1">
-        <v>75.070875070875076</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>2020</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1">
-        <v>85.535831689677849</v>
-      </c>
-      <c r="D18" s="1">
-        <v>71.472896513962397</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>2021</v>
-      </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="1">
-        <v>89.093435220562696</v>
+        <v>90.640583045646338</v>
       </c>
       <c r="D19" s="1">
-        <v>74.905465795806109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>2022</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1">
-        <v>90.523123578468528</v>
-      </c>
-      <c r="D20" s="1">
-        <v>77.795707600451834</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>2023</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="1">
-        <v>90.640583045646338</v>
-      </c>
-      <c r="D21" s="1">
         <v>79.252657911194504</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
